--- a/Proof of concept/Training example/tidal training model example.xlsx
+++ b/Proof of concept/Training example/tidal training model example.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27203"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{99994D49-4A7A-47F5-8812-73A598BECFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B94BBC5-01C0-4CC8-8476-56A28C785A88}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{C7AE3E7D-C5CB-4723-8C3D-2090ACA05D7A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" firstSheet="2" activeTab="2" xr2:uid="{C7AE3E7D-C5CB-4723-8C3D-2090ACA05D7A}"/>
   </bookViews>
   <sheets>
     <sheet name="F_Inputs" sheetId="4" r:id="rId1"/>
     <sheet name="Calculations" sheetId="6" r:id="rId2"/>
     <sheet name="F_Outputs" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,6 +40,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="62">
   <si>
+    <t>Fountain training part 2</t>
+  </si>
+  <si>
+    <t>Run on 04 Dec 2023 13:12</t>
+  </si>
+  <si>
     <t>Acronym</t>
   </si>
   <si>
@@ -55,6 +61,27 @@
     <t>Model</t>
   </si>
   <si>
+    <t>2011-12</t>
+  </si>
+  <si>
+    <t>2012-13</t>
+  </si>
+  <si>
+    <t>2013-14</t>
+  </si>
+  <si>
+    <t>2014-15</t>
+  </si>
+  <si>
+    <t>2015-16</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>2017-18</t>
+  </si>
+  <si>
     <t>2018-19</t>
   </si>
   <si>
@@ -67,95 +94,110 @@
     <t>2021-22</t>
   </si>
   <si>
+    <t>2022-23</t>
+  </si>
+  <si>
+    <t>2023-24</t>
+  </si>
+  <si>
+    <t>2024-25</t>
+  </si>
+  <si>
+    <t>2025-26</t>
+  </si>
+  <si>
+    <t>2026-27</t>
+  </si>
+  <si>
+    <t>2027-28</t>
+  </si>
+  <si>
+    <t>2028-29</t>
+  </si>
+  <si>
+    <t>2029-30</t>
+  </si>
+  <si>
+    <t>2030-31</t>
+  </si>
+  <si>
+    <t>2031-32</t>
+  </si>
+  <si>
+    <t>2032-33</t>
+  </si>
+  <si>
+    <t>2033-34</t>
+  </si>
+  <si>
+    <t>2034-35</t>
+  </si>
+  <si>
+    <t>Price Review 2024</t>
+  </si>
+  <si>
+    <t>PR24 Test Run</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
     <t>ANH</t>
   </si>
   <si>
     <t>OUT4_05_A_PR24</t>
-  </si>
-  <si>
-    <t>OUT4_05_B_PR24</t>
-  </si>
-  <si>
-    <t>WSH</t>
-  </si>
-  <si>
-    <t>NES</t>
   </si>
   <si>
     <t>Underlying calculations for common performance commitments - water and combined - Leakage - Company level - Baseline
 (average from 2017-18 to 2019-20)</t>
   </si>
   <si>
+    <t>Ml/d</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OUT4_05_B_PR24</t>
+  </si>
+  <si>
     <t>Underlying calculations for common performance commitments - water and combined - Leakage - Company level - 3 - year average</t>
   </si>
   <si>
-    <t>Ml/d</t>
-  </si>
-  <si>
-    <t>Price Review 2024</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2025-26</t>
-  </si>
-  <si>
-    <t>2026-27</t>
-  </si>
-  <si>
-    <t>2027-28</t>
-  </si>
-  <si>
-    <t>2028-29</t>
-  </si>
-  <si>
-    <t>2029-30</t>
-  </si>
-  <si>
-    <t>2030-31</t>
-  </si>
-  <si>
-    <t>2031-32</t>
-  </si>
-  <si>
-    <t>2032-33</t>
-  </si>
-  <si>
-    <t>2033-34</t>
-  </si>
-  <si>
-    <t>2034-35</t>
-  </si>
-  <si>
-    <t/>
+    <t>PARAM_EX1_PR24</t>
+  </si>
+  <si>
+    <t>Test example parameter: efficiency challenge</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>WSH</t>
+  </si>
+  <si>
+    <t>NES</t>
+  </si>
+  <si>
+    <t>Financial Year</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Model column counter</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Leakage target</t>
+  </si>
+  <si>
+    <t>Target leakage</t>
   </si>
   <si>
     <t>tidal training F_Inputs example data_Fout</t>
@@ -164,67 +206,25 @@
     <t>Run on 25 Sep 2023 20:56</t>
   </si>
   <si>
-    <t>Financial Year</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>PARAM_EX1_PR24</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Leakage target</t>
-  </si>
-  <si>
-    <t>Target leakage</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Model column counter</t>
-  </si>
-  <si>
     <t>C_EX1_PR24</t>
   </si>
   <si>
     <t>Example output: leakage target</t>
   </si>
   <si>
+    <t>PR24QA_EX1_OUT_1</t>
+  </si>
+  <si>
+    <t>Date &amp; Time for Model EX1</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
-    <t>PR24QA_EX1_OUT_1</t>
-  </si>
-  <si>
     <t>PR24QA_EX1_OUT_2</t>
   </si>
   <si>
-    <t>Date &amp; Time for Model EX1</t>
-  </si>
-  <si>
     <t>Name &amp; Path of Model EX2</t>
-  </si>
-  <si>
-    <t>Fountain training part 2</t>
-  </si>
-  <si>
-    <t>Run on 04 Dec 2023 13:12</t>
-  </si>
-  <si>
-    <t>PR24 Test Run</t>
-  </si>
-  <si>
-    <t>Latest</t>
-  </si>
-  <si>
-    <t>Test example parameter: efficiency challenge</t>
   </si>
 </sst>
 </file>
@@ -237,7 +237,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,10 +454,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -763,342 +759,342 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" ht="14.25">
       <c r="C1" s="26" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="14.25" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="14.25">
       <c r="A2" s="27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="R2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="S2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="T2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="W2" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="27" t="s">
+      <c r="X2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="Z2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="AA2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="AB2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="AC2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="27" t="s">
+    </row>
+    <row r="4" spans="1:29" ht="14.25">
+      <c r="F4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="X4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="14.25">
+      <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="14.25">
+      <c r="F6" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="G6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="V6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" s="27" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="F4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="V4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="F5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="U5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="W5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="X5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB5" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="F6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="X6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC6" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>38</v>
@@ -1137,21 +1133,21 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>38</v>
@@ -1190,21 +1186,21 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>38</v>
@@ -1243,21 +1239,21 @@
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>38</v>
@@ -1296,21 +1292,21 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
@@ -1349,21 +1345,21 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>38</v>
@@ -1402,21 +1398,21 @@
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>38</v>
@@ -1455,21 +1451,21 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>38</v>
@@ -1508,21 +1504,21 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
@@ -1574,16 +1570,16 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="4" width="1.25" customWidth="1"/>
     <col min="9" max="9" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" ht="31.9" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="str">
+    <row r="1" spans="1:27" s="6" customFormat="1" ht="31.9">
+      <c r="A1" s="5" t="e">
         <f ca="1" xml:space="preserve"> RIGHT(CELL("filename", A1), LEN(CELL("filename", A1)) - SEARCH("]", CELL("filename", A1)))</f>
-        <v>Calculations</v>
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1604,16 +1600,16 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:27" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="7" customFormat="1" ht="12.75">
       <c r="D2" s="8"/>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1622,76 +1618,76 @@
         <v>0</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="18" customFormat="1" ht="13.9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:27" s="18" customFormat="1" ht="13.9">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="19">
@@ -1749,7 +1745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="6" customFormat="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1770,14 +1766,14 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:27" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="13.9">
       <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="D7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E7" t="str">
         <f>F_Inputs!C7</f>
@@ -1785,7 +1781,7 @@
 (average from 2017-18 to 2019-20)</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J7" s="24">
         <f>F_Inputs!L7</f>
@@ -1860,9 +1856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E8" t="str">
         <f>F_Inputs!C10</f>
@@ -1870,7 +1866,7 @@
 (average from 2017-18 to 2019-20)</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J8" s="24">
         <f>F_Inputs!L10</f>
@@ -1945,9 +1941,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27">
       <c r="D9" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E9" t="str">
         <f>F_Inputs!C13</f>
@@ -1955,7 +1951,7 @@
 (average from 2017-18 to 2019-20)</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J9" s="24">
         <f>F_Inputs!L13</f>
@@ -2030,16 +2026,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27">
       <c r="D11" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E11" t="str">
         <f>F_Inputs!C9</f>
         <v>Test example parameter: efficiency challenge</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="25">
         <f>F_Inputs!L9</f>
@@ -2114,16 +2110,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27">
       <c r="D12" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E12" t="str">
         <f>F_Inputs!C12</f>
         <v>Test example parameter: efficiency challenge</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="25">
         <f>F_Inputs!L12</f>
@@ -2198,16 +2194,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27">
       <c r="D13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E13" t="str">
         <f>F_Inputs!C15</f>
         <v>Test example parameter: efficiency challenge</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13" s="25">
         <f>F_Inputs!L15</f>
@@ -2282,15 +2278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27">
       <c r="D15" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J15" s="24">
         <f xml:space="preserve"> J7 - J7 * J11</f>
@@ -2365,15 +2361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27">
       <c r="D16" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J16" s="24">
         <f t="shared" ref="J16:Y17" si="1" xml:space="preserve"> J8 - J8 * J12</f>
@@ -2448,15 +2444,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:27">
       <c r="D17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J17" s="24">
         <f t="shared" si="1"/>
@@ -2544,102 +2540,102 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="14.25">
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F4" s="4">
         <f>Calculations!J15</f>
@@ -2714,199 +2710,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A5" s="20" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F5" s="23" t="str">
         <f t="shared" ref="F5:W5" ca="1" si="0">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="G5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="H5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="I5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="J5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="K5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="L5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="M5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="N5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="O5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="P5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="Q5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="R5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="S5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="T5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="U5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="V5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="W5" s="23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>[…]07/12/2023 13:15:52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+        <v>[…]11/12/2023 12:07:32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A6" s="20" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="22" t="e">
+        <f t="shared" ref="F6:W6" ca="1" si="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" s="22" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="22" t="str">
-        <f t="shared" ref="F6:W6" ca="1" si="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="G6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="H6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="I6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="J6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="K6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="L6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="M6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="N6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="O6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="P6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="Q6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="R6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="S6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="T6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="U6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="V6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="W6" s="22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F7" s="4">
         <f>Calculations!J16</f>
@@ -2981,199 +2977,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A8" s="20" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="23" t="str">
         <f t="shared" ref="F8:W8" ca="1" si="2">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="G8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="H8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="J8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="K8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="L8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="M8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="N8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="O8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="P8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="Q8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="R8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="S8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="T8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="U8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="V8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="W8" s="23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>[…]07/12/2023 13:15:52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+        <v>[…]11/12/2023 12:07:32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A9" s="20" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="22" t="e">
+        <f t="shared" ref="F9:W9" ca="1" si="3">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W9" s="22" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="22" t="str">
-        <f t="shared" ref="F9:W9" ca="1" si="3">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="G9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="H9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="I9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="J9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="K9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="L9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="M9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="N9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="O9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="P9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="Q9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="R9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="S9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="T9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="U9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="V9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="W9" s="22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4">
         <f>Calculations!J17</f>
@@ -3248,182 +3244,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A11" s="20" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F11" s="23" t="str">
         <f t="shared" ref="F11:W11" ca="1" si="4">CONCATENATE("[…]", TEXT(NOW(),"dd/mm/yyy hh:mm:ss"))</f>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="G11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="H11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="I11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="J11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="K11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="L11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="M11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="N11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="O11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="P11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="Q11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="R11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="S11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="T11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="U11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="V11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
+        <v>[…]11/12/2023 12:07:32</v>
       </c>
       <c r="W11" s="23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>[…]07/12/2023 13:15:52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.35">
+        <v>[…]11/12/2023 12:07:32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="14.25">
       <c r="A12" s="20" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="22" t="str">
+        <v>31</v>
+      </c>
+      <c r="F12" s="22" t="e">
         <f ca="1">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="G12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G12" s="22" t="e">
         <f t="shared" ref="G12:W12" ca="1" si="5">MID(CELL("filename"),SEARCH("[",CELL("filename"))+1,SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1)</f>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="H12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="I12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="J12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="K12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="L12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="M12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="N12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="O12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="P12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="Q12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="R12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="S12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="T12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="U12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="V12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
-      </c>
-      <c r="W12" s="22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W12" s="22" t="e">
         <f t="shared" ca="1" si="5"/>
-        <v>tidal training model example.xlsx</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -3432,6 +3428,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010071233F17EC503149BDF7FC18AB281EBA" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="02da06d0e7423711b15ba2dd948bdc51">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e977ff61-02db-41ba-b0af-78a2a0b9367c" xmlns:ns3="71c95305-930c-4d63-9794-2d644343057c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d0e005ae340b8749f809a633acf029" ns2:_="" ns3:_="">
     <xsd:import namespace="e977ff61-02db-41ba-b0af-78a2a0b9367c"/>
@@ -3668,19 +3673,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E45AC45-7D64-4882-BFDA-449B41F9F642}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A56603-BC40-4D9A-A8D0-69C2932BDB41}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A56603-BC40-4D9A-A8D0-69C2932BDB41}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E45AC45-7D64-4882-BFDA-449B41F9F642}"/>
 </file>